--- a/biology/Biochimie/Équation_de_Haldane/Équation_de_Haldane.xlsx
+++ b/biology/Biochimie/Équation_de_Haldane/Équation_de_Haldane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Haldane</t>
+          <t>Équation_de_Haldane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équation de Haldane décrit, dans le cas d'une enzyme qui catalyse réversiblement (dans les deux directions de la réaction) la transformation d'un substrat en produit, la relation qui existe entre les paramètres cinétiques de l'enzyme et la constante d'équilibre de la réaction[1]. Elle est démontrée pour la première fois en 1930 dans le livre Enzymes de John Burdon Sanderson Haldane[2],[3].
-Cette équation explique que certaines enzymes peuvent être de « meilleurs » catalyseurs (en termes de vitesses maximales) dans une des deux directions de la réaction[4].
-À chaque hypothèse de mécanisme correspond une équation de Haldane particulière[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de Haldane décrit, dans le cas d'une enzyme qui catalyse réversiblement (dans les deux directions de la réaction) la transformation d'un substrat en produit, la relation qui existe entre les paramètres cinétiques de l'enzyme et la constante d'équilibre de la réaction. Elle est démontrée pour la première fois en 1930 dans le livre Enzymes de John Burdon Sanderson Haldane,.
+Cette équation explique que certaines enzymes peuvent être de « meilleurs » catalyseurs (en termes de vitesses maximales) dans une des deux directions de la réaction.
+À chaque hypothèse de mécanisme correspond une équation de Haldane particulière.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Haldane</t>
+          <t>Équation_de_Haldane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Démonstration dans le cas d'un modèle cinétique simple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En faisant l'hypothèse du mécanisme ci-dessous
             E
@@ -798,7 +812,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Haldane</t>
+          <t>Équation_de_Haldane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -816,7 +830,9 @@
           <t>Réactions à plusieurs substrats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas des enzymes catalysant la réaction entre plusieurs substrats pour former plusieurs produits, à chaque mécanisme est associée au moins une équation de Haldane de la forme
           K
@@ -858,7 +874,7 @@
 , où les 
         K
     {\displaystyle K}
- sont des constantes de Michaelis ou des constantes d'inhibition[5]. 
+ sont des constantes de Michaelis ou des constantes d'inhibition. 
 </t>
         </is>
       </c>
